--- a/biology/Médecine/Marguerite_La_Marche/Marguerite_La_Marche.xlsx
+++ b/biology/Médecine/Marguerite_La_Marche/Marguerite_La_Marche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marguerite La Marche, née Dutertre en 1638 et morte en 1706, est une sage-femme française.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marguerite La Marche est orpheline[1]. Sa vocation lui vient d'une rencontre avec une hospitalière de l'Hôtel-Dieu de Paris où elle reçoit sa formation[1].  
-En 1662, Marguerite La Marche est nommée sage-femme en chef à l'Hôtel-Dieu de Paris[2].  
-En 1677, elle publie le premier manuel de médecine écrit par une femme en Europe[3], Instruction familière et très facile, faite par questions et réponses touchant toutes les choses principales qu'une sage-femme doit savoir pour l'exercice de son art[4]. Des croquis de l'utérus, des trompes de Fallope, du vagin et des organes internes des femmes sont publiées dans le traité d'obstétrique[3].
-À l'âge de 23 ans, vers 1661, elle épouse Jean Didiot, sieur de Lamarche[2] après être diplômée[1].
-Elle meurt à l'Hôtel-Dieu de Paris[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marguerite La Marche est orpheline. Sa vocation lui vient d'une rencontre avec une hospitalière de l'Hôtel-Dieu de Paris où elle reçoit sa formation.  
+En 1662, Marguerite La Marche est nommée sage-femme en chef à l'Hôtel-Dieu de Paris.  
+En 1677, elle publie le premier manuel de médecine écrit par une femme en Europe, Instruction familière et très facile, faite par questions et réponses touchant toutes les choses principales qu'une sage-femme doit savoir pour l'exercice de son art. Des croquis de l'utérus, des trompes de Fallope, du vagin et des organes internes des femmes sont publiées dans le traité d'obstétrique.
+À l'âge de 23 ans, vers 1661, elle épouse Jean Didiot, sieur de Lamarche après être diplômée.
+Elle meurt à l'Hôtel-Dieu de Paris.
 </t>
         </is>
       </c>
